--- a/Rat Review.xlsx
+++ b/Rat Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathuser/Documents/Perl Lab Rat Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{4FE6ED64-456F-2341-B889-E7D58046E454}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED271BC1-DDB1-9B40-BF40-D1F007F6DCE6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10280" yWindow="460" windowWidth="15240" windowHeight="15000" xr2:uid="{492C9695-63A7-E247-8A26-3C145580BC5E}"/>
+    <workbookView xWindow="2120" yWindow="460" windowWidth="23400" windowHeight="15000" xr2:uid="{492C9695-63A7-E247-8A26-3C145580BC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="19">
   <si>
     <t>A02</t>
   </si>
@@ -49,6 +49,39 @@
   </si>
   <si>
     <t>A12</t>
+  </si>
+  <si>
+    <t>Stim</t>
+  </si>
+  <si>
+    <t>No Stim</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>AA01</t>
+  </si>
+  <si>
+    <t>AA06</t>
+  </si>
+  <si>
+    <t>No stim</t>
+  </si>
+  <si>
+    <t>B04</t>
+  </si>
+  <si>
+    <t>B06</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A17</t>
   </si>
 </sst>
 </file>
@@ -110,13 +143,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -433,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC0818A-4301-F542-9C62-BCE947E9F3B7}">
-  <dimension ref="A1:S24"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="AS18" sqref="AS18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -446,26 +485,93 @@
     <col min="9" max="9" width="10.83203125" style="1"/>
     <col min="13" max="13" width="10.83203125" style="1"/>
     <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="21" max="21" width="10.83203125" style="1"/>
+    <col min="25" max="25" width="10.83203125" style="1"/>
+    <col min="29" max="29" width="10.83203125" style="1"/>
+    <col min="33" max="33" width="10.83203125" style="1"/>
+    <col min="37" max="37" width="10.83203125" style="1"/>
+    <col min="41" max="41" width="10.83203125" style="1"/>
+    <col min="45" max="45" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
       <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N1" t="s">
+        <v>8</v>
+      </c>
       <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="R1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,559 +617,2800 @@
       <c r="S2" t="s">
         <v>3</v>
       </c>
+      <c r="U2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AK2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AS2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="U3" s="1">
+        <v>43311</v>
+      </c>
+      <c r="V3" s="8">
+        <f>ROUNDDOWN((U3-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>45</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>43311</v>
+      </c>
+      <c r="Z3" s="8">
+        <f>ROUNDDOWN((Y3-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>37</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>43311</v>
+      </c>
+      <c r="AD3" s="8">
+        <f>ROUNDDOWN((AC3-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>55</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>43311</v>
+      </c>
+      <c r="AH3" s="8">
+        <f>ROUNDDOWN((AG3-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="U4" s="1">
+        <v>43312</v>
+      </c>
+      <c r="V4">
+        <f t="shared" ref="V4:V29" si="0">ROUNDDOWN((U4-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>44</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>43312</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" ref="Z4:Z29" si="1">ROUNDDOWN((Y4-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>43312</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" ref="AD4:AD29" si="2">ROUNDDOWN((AC4-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>48</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>43312</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" ref="AH4:AH29" si="3">ROUNDDOWN((AG4-43311)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
         <v>43270</v>
       </c>
-      <c r="C3">
+      <c r="B5" s="8">
+        <f>ROUNDDOWN((A5-43270)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
         <v>46</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E5" s="1">
         <v>43270</v>
       </c>
-      <c r="G3">
+      <c r="F5" s="8">
+        <f>ROUNDDOWN((E5-43270)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
         <v>50</v>
       </c>
+      <c r="J5" s="8"/>
+      <c r="U5" s="1">
+        <v>43313</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>57</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>43313</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>30</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>43313</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>46</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>43313</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="6" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>43271</v>
       </c>
-      <c r="C4">
+      <c r="B6" s="8">
+        <f t="shared" ref="B6:B9" si="4">ROUNDDOWN((A6-43270)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
         <v>42</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E6" s="1">
         <v>43271</v>
       </c>
-      <c r="G4">
+      <c r="F6">
+        <f t="shared" ref="F6:F27" si="5">ROUNDDOWN((E6-43270)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>54</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I6" s="1">
         <v>43271</v>
       </c>
-      <c r="K4">
+      <c r="J6">
+        <f>ROUNDDOWN((I6-43271)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>59</v>
       </c>
-      <c r="M4" s="1">
+      <c r="M6" s="1">
         <v>43271</v>
       </c>
-      <c r="O4">
+      <c r="N6">
+        <f>ROUNDDOWN((M6-43271)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>39</v>
       </c>
-      <c r="Q4" s="1">
+      <c r="Q6" s="1">
         <v>43271</v>
       </c>
-      <c r="S4">
+      <c r="R6">
+        <f>ROUNDDOWN((Q6-43271)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>45</v>
       </c>
+      <c r="U6" s="1">
+        <v>43314</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>45</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>43314</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>33</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>43314</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>43</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>43314</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="4">
+    <row r="7" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
         <v>43272</v>
       </c>
-      <c r="C5" s="5">
+      <c r="B7" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C7">
         <v>44</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E7" s="6">
         <v>43272</v>
       </c>
-      <c r="G5" s="5">
+      <c r="F7">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>53</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I7" s="1">
         <v>43272</v>
       </c>
-      <c r="K5" s="5">
+      <c r="J7">
+        <f t="shared" ref="J7:J26" si="6">ROUNDDOWN((I7-43271)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>58</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M7" s="1">
         <v>43272</v>
       </c>
-      <c r="O5" s="5">
+      <c r="N7">
+        <f t="shared" ref="N7:N26" si="7">ROUNDDOWN((M7-43271)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>35</v>
       </c>
-      <c r="Q5" s="4">
+      <c r="Q7" s="6">
         <v>43272</v>
       </c>
-      <c r="S5" s="5">
+      <c r="R7">
+        <f t="shared" ref="R7:R26" si="8">ROUNDDOWN((Q7-43271)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="7">
         <v>47</v>
       </c>
+      <c r="U7" s="1">
+        <v>43315</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>51</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>43315</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>36</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>43315</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>43</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>43315</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>43339</v>
+      </c>
+      <c r="AL7" s="8">
+        <f>ROUNDDOWN((AK7-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>33</v>
+      </c>
+      <c r="AO7" s="1">
+        <v>43339</v>
+      </c>
+      <c r="AP7" s="8">
+        <f>ROUNDDOWN((AO7-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>35</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>43339</v>
+      </c>
+      <c r="AT7" s="8">
+        <f>ROUNDDOWN((AS7-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>30</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>43339</v>
+      </c>
+      <c r="AX7" s="8">
+        <f>ROUNDDOWN((AW7-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY7">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="8" spans="1:51" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>43277</v>
+      </c>
+      <c r="B8" s="9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43277</v>
+      </c>
+      <c r="F8" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="I8" s="4">
+        <v>43277</v>
+      </c>
+      <c r="J8" s="5">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="M8" s="4">
+        <v>43277</v>
+      </c>
+      <c r="N8" s="5">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>43277</v>
+      </c>
+      <c r="R8" s="5">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <v>43319</v>
+      </c>
+      <c r="V8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>43319</v>
+      </c>
+      <c r="Z8" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="AC8" s="4">
+        <v>43319</v>
+      </c>
+      <c r="AD8" s="5">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>43319</v>
+      </c>
+      <c r="AH8" s="5">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>43340</v>
+      </c>
+      <c r="AL8" s="5">
+        <f t="shared" ref="AL8:AL27" si="9">ROUNDDOWN((AK8-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="4">
+        <v>43340</v>
+      </c>
+      <c r="AP8" s="5">
+        <f t="shared" ref="AP8:AP27" si="10">ROUNDDOWN((AO8-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AS8" s="4">
+        <v>43340</v>
+      </c>
+      <c r="AT8" s="5">
+        <f t="shared" ref="AT8:AT27" si="11">ROUNDDOWN((AS8-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AW8" s="4">
+        <v>43340</v>
+      </c>
+      <c r="AX8" s="5">
+        <f t="shared" ref="AX8:AX27" si="12">ROUNDDOWN((AW8-43339)/5,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>43290</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="B9" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
         <v>43290</v>
       </c>
-      <c r="G6">
+      <c r="F9">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>2</v>
       </c>
-      <c r="I6" s="1">
+      <c r="I9" s="1">
         <v>43290</v>
       </c>
-      <c r="K6">
+      <c r="J9">
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="M6" s="1">
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="M9" s="1">
         <v>43290</v>
       </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="N9">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1">
         <v>43290</v>
       </c>
-      <c r="S6">
-        <v>6</v>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="U9" s="1">
+        <v>43325</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>43353</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="AM9">
+        <v>12</v>
+      </c>
+      <c r="AO9" s="1">
+        <v>43353</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="AQ9">
+        <v>4</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>43353</v>
+      </c>
+      <c r="AT9">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="AU9">
+        <v>7</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>43353</v>
+      </c>
+      <c r="AX9">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="AY9">
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E7" s="1">
+    <row r="10" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="E10" s="1">
         <v>43292</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
+      <c r="F10">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
         <v>43291</v>
       </c>
-      <c r="K7">
+      <c r="J10">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K10">
         <v>2</v>
       </c>
-      <c r="M7" s="1">
+      <c r="M10" s="1">
         <v>43292</v>
       </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="1">
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="1">
         <v>43293</v>
       </c>
-      <c r="S7">
-        <v>0</v>
+      <c r="R10">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1">
+        <v>43332</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>43332</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>43333</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="AE10">
+        <v>16</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>43333</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>43361</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AM10">
+        <v>17</v>
+      </c>
+      <c r="AO10" s="1">
+        <v>43361</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AQ10">
+        <v>2</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>43361</v>
+      </c>
+      <c r="AT10">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AU10">
+        <v>3</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>43361</v>
+      </c>
+      <c r="AX10">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AY10">
+        <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="I8" s="1">
+    <row r="11" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
         <v>43293</v>
       </c>
-      <c r="K8">
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K11">
         <v>3</v>
       </c>
+      <c r="U11" s="1">
+        <v>43339</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W11">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>43339</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>43339</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>43339</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>43362</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AM11">
+        <v>20</v>
+      </c>
+      <c r="AO11" s="1">
+        <v>43362</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AQ11">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>43362</v>
+      </c>
+      <c r="AT11">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AU11">
+        <v>2</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>43362</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AY11">
+        <v>5</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E9" s="1">
+    <row r="12" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="E12" s="1">
         <v>43297</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
         <v>43297</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="1">
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="1">
         <v>43297</v>
       </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="N12">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="1">
         <v>43297</v>
       </c>
-      <c r="S9">
-        <v>0</v>
+      <c r="R12">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1">
+        <v>43340</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>43340</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>43340</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>43340</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>43363</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="AM12">
+        <v>21</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>43363</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="10"/>
+        <v>4</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>43363</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="AU12">
+        <v>5</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>43363</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="AY12">
+        <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E10" s="1">
+    <row r="13" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="E13" s="1">
         <v>43298</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
+      <c r="F13">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
         <v>43298</v>
       </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="1">
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="1">
         <v>43298</v>
       </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="N13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="1">
         <v>43298</v>
       </c>
-      <c r="S10">
-        <v>0</v>
+      <c r="R13">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1">
+        <v>43341</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>43341</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>43341</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>43341</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>43364</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AM13">
+        <v>15</v>
+      </c>
+      <c r="AO13" s="1">
+        <v>43364</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AQ13">
+        <v>2</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>43364</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>43364</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AY13">
+        <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E11" s="1">
+    <row r="14" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="E14" s="1">
         <v>43299</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
+      <c r="F14">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
         <v>43299</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="1">
+      <c r="J14">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="1">
         <v>43299</v>
       </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="1">
+      <c r="N14">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="1">
         <v>43299</v>
       </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
+      <c r="R14">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1">
+        <v>43342</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>43342</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>43342</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>43342</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="1"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E12" s="1">
+    <row r="15" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="E15" s="1">
         <v>43300</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
+      <c r="F15">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
         <v>43300</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="1">
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
         <v>43300</v>
       </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="N15">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="1">
         <v>43300</v>
       </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
+      <c r="R15">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1">
+        <v>43343</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>43343</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>43343</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>43343</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="1"/>
     </row>
-    <row r="13" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="E13" s="2">
+    <row r="16" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="10">
         <v>43301</v>
       </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
+      <c r="F16" s="11">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="2">
         <v>43301</v>
       </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2">
+      <c r="J16" s="3">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0</v>
+      </c>
+      <c r="L16" s="11"/>
+      <c r="M16" s="2">
         <v>43301</v>
       </c>
-      <c r="O13" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
+      <c r="N16" s="3">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0</v>
+      </c>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="10">
         <v>43301</v>
       </c>
-      <c r="S13" s="3">
-        <v>0</v>
+      <c r="R16" s="11">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="S16" s="11">
+        <v>0</v>
+      </c>
+      <c r="T16" s="11"/>
+      <c r="U16" s="10">
+        <v>43347</v>
+      </c>
+      <c r="V16" s="11">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W16" s="11">
+        <v>0</v>
+      </c>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="10">
+        <v>43347</v>
+      </c>
+      <c r="Z16" s="11">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="11"/>
+      <c r="AC16" s="10">
+        <v>43347</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AE16" s="11">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="11"/>
+      <c r="AG16" s="2">
+        <v>43347</v>
+      </c>
+      <c r="AH16" s="3">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="10">
+        <v>43367</v>
+      </c>
+      <c r="AL16" s="11">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AM16" s="11">
+        <v>14</v>
+      </c>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="2">
+        <v>43367</v>
+      </c>
+      <c r="AP16" s="3">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AQ16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>43367</v>
+      </c>
+      <c r="AT16" s="3">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AU16" s="3">
+        <v>10</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>43367</v>
+      </c>
+      <c r="AX16" s="3">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AY16" s="3">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E14" s="1">
+    <row r="17" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E17" s="1">
         <v>43304</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
         <v>43304</v>
       </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="1">
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>43304</v>
       </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="N17">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1">
         <v>43304</v>
       </c>
-      <c r="S14">
+      <c r="R17">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1">
+        <v>43348</v>
+      </c>
+      <c r="V17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W17">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>43348</v>
+      </c>
+      <c r="Z17">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>43348</v>
+      </c>
+      <c r="AD17">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>43348</v>
+      </c>
+      <c r="AH17">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="AL17">
+        <f t="shared" si="9"/>
+        <v>5</v>
+      </c>
+      <c r="AM17">
+        <v>17</v>
+      </c>
+      <c r="AO17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="10"/>
+        <v>5</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AS17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="AT17">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AU17">
+        <v>13</v>
+      </c>
+      <c r="AW17" s="1">
+        <v>43368</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="12"/>
+        <v>5</v>
+      </c>
+      <c r="AY17">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E15" s="1">
+    <row r="18" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E18" s="1">
         <v>43305</v>
       </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
+      <c r="F18">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
         <v>43305</v>
       </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="1">
+      <c r="J18">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1">
         <v>43305</v>
       </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="1">
+      <c r="N18">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1">
         <v>43305</v>
       </c>
-      <c r="S15">
-        <v>0</v>
+      <c r="R18">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1">
+        <v>43349</v>
+      </c>
+      <c r="V18">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W18">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>43349</v>
+      </c>
+      <c r="Z18">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>43349</v>
+      </c>
+      <c r="AD18">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>43349</v>
+      </c>
+      <c r="AH18">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>43369</v>
+      </c>
+      <c r="AL18">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AM18">
+        <v>19</v>
+      </c>
+      <c r="AO18" s="1">
+        <v>43369</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AQ18">
+        <v>5</v>
+      </c>
+      <c r="AS18" s="1">
+        <v>43369</v>
+      </c>
+      <c r="AT18">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="1">
+        <v>43369</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AY18">
+        <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="E16" s="1">
+    <row r="19" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E19" s="1">
         <v>43306</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
+      <c r="F19">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
         <v>43306</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="1">
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1">
         <v>43306</v>
       </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="N19">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1">
         <v>43306</v>
       </c>
-      <c r="S16">
-        <v>0</v>
+      <c r="R19">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1">
+        <v>43350</v>
+      </c>
+      <c r="V19">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>43350</v>
+      </c>
+      <c r="Z19">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>43350</v>
+      </c>
+      <c r="AD19">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>43350</v>
+      </c>
+      <c r="AH19">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>43370</v>
+      </c>
+      <c r="AL19">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AM19">
+        <v>24</v>
+      </c>
+      <c r="AO19" s="1">
+        <v>43370</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AQ19">
+        <v>10</v>
+      </c>
+      <c r="AS19" s="1">
+        <v>43370</v>
+      </c>
+      <c r="AT19">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AU19">
+        <v>10</v>
+      </c>
+      <c r="AW19" s="1">
+        <v>43370</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AY19">
+        <v>9</v>
       </c>
     </row>
-    <row r="17" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E17" s="1">
+    <row r="20" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E20" s="1">
         <v>43307</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
+      <c r="F20">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
         <v>43307</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="1">
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1">
         <v>43307</v>
       </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="N20">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1">
         <v>43307</v>
       </c>
-      <c r="S17">
-        <v>0</v>
+      <c r="R20">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1">
+        <v>43353</v>
+      </c>
+      <c r="V20">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>43353</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>43353</v>
+      </c>
+      <c r="AD20">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>43353</v>
+      </c>
+      <c r="AH20">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>43371</v>
+      </c>
+      <c r="AL20">
+        <f t="shared" si="9"/>
+        <v>6</v>
+      </c>
+      <c r="AM20">
+        <v>19</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>43371</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="AQ20">
+        <v>6</v>
+      </c>
+      <c r="AS20" s="1">
+        <v>43371</v>
+      </c>
+      <c r="AT20">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AU20">
+        <v>7</v>
+      </c>
+      <c r="AW20" s="1">
+        <v>43371</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="12"/>
+        <v>6</v>
+      </c>
+      <c r="AY20">
+        <v>5</v>
       </c>
     </row>
-    <row r="18" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E18" s="1">
+    <row r="21" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E21" s="1">
         <v>43308</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
+      <c r="F21">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1">
         <v>43308</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1">
         <v>43308</v>
       </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="N21">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1">
         <v>43308</v>
       </c>
-      <c r="S18">
-        <v>0</v>
+      <c r="R21">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1">
+        <v>43354</v>
+      </c>
+      <c r="V21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>43354</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>43354</v>
+      </c>
+      <c r="AD21">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>43354</v>
+      </c>
+      <c r="AH21">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>43374</v>
+      </c>
+      <c r="AL21">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AM21">
+        <v>15</v>
+      </c>
+      <c r="AO21" s="1">
+        <v>43374</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AQ21">
+        <v>4</v>
+      </c>
+      <c r="AS21" s="1">
+        <v>43374</v>
+      </c>
+      <c r="AT21">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AU21">
+        <v>8</v>
+      </c>
+      <c r="AW21" s="1">
+        <v>43374</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AY21">
+        <v>7</v>
       </c>
     </row>
-    <row r="19" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E19" s="1">
+    <row r="22" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E22" s="1">
         <v>43311</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
+      <c r="F22">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="I22" s="1">
         <v>43311</v>
       </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="1">
+      <c r="J22">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="1">
         <v>43311</v>
       </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1">
+      <c r="N22">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1">
         <v>43311</v>
       </c>
-      <c r="S19">
-        <v>0</v>
+      <c r="R22">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1">
+        <v>43355</v>
+      </c>
+      <c r="V22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="W22">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>43355</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>43355</v>
+      </c>
+      <c r="AD22">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>43355</v>
+      </c>
+      <c r="AH22">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>43375</v>
+      </c>
+      <c r="AL22">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AM22">
+        <v>19</v>
+      </c>
+      <c r="AO22" s="1">
+        <v>43375</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AQ22">
+        <v>6</v>
+      </c>
+      <c r="AS22" s="1">
+        <v>43375</v>
+      </c>
+      <c r="AT22">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AU22">
+        <v>13</v>
+      </c>
+      <c r="AW22" s="1">
+        <v>43375</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AY22">
+        <v>6</v>
       </c>
     </row>
-    <row r="20" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E20" s="1">
+    <row r="23" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E23" s="1">
         <v>43312</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
+      <c r="F23">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1">
         <v>43312</v>
       </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1">
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1">
         <v>43312</v>
       </c>
-      <c r="S20">
-        <v>0</v>
+      <c r="R23">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1">
+        <v>43356</v>
+      </c>
+      <c r="V23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>43356</v>
+      </c>
+      <c r="Z23">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>43356</v>
+      </c>
+      <c r="AD23">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>43356</v>
+      </c>
+      <c r="AH23">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>43376</v>
+      </c>
+      <c r="AL23">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AM23">
+        <v>11</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>43376</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AQ23">
+        <v>5</v>
+      </c>
+      <c r="AS23" s="1">
+        <v>43376</v>
+      </c>
+      <c r="AT23">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AU23">
+        <v>12</v>
+      </c>
+      <c r="AW23" s="1">
+        <v>43376</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AY23">
+        <v>5</v>
       </c>
     </row>
-    <row r="21" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E21" s="1">
+    <row r="24" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E24" s="1">
         <v>43313</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="I21" s="1">
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1">
         <v>43313</v>
       </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="1">
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1">
         <v>43313</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1">
         <v>43313</v>
       </c>
-      <c r="S21">
-        <v>0</v>
+      <c r="R24">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1">
+        <v>43357</v>
+      </c>
+      <c r="V24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>43357</v>
+      </c>
+      <c r="Z24">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>43357</v>
+      </c>
+      <c r="AD24">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>43357</v>
+      </c>
+      <c r="AH24">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>43377</v>
+      </c>
+      <c r="AL24">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AM24">
+        <v>7</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>43377</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>43377</v>
+      </c>
+      <c r="AT24">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AU24">
+        <v>13</v>
+      </c>
+      <c r="AW24" s="1">
+        <v>43377</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AY24">
+        <v>5</v>
       </c>
     </row>
-    <row r="22" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E22" s="1">
+    <row r="25" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E25" s="1">
         <v>43314</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="1">
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1">
         <v>43314</v>
       </c>
-      <c r="K22">
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K25">
         <v>9</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M25" s="1">
         <v>43314</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="N25">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1">
         <v>43314</v>
       </c>
-      <c r="S22">
-        <v>0</v>
+      <c r="R25">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1">
+        <v>43360</v>
+      </c>
+      <c r="V25">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>43360</v>
+      </c>
+      <c r="Z25">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>43360</v>
+      </c>
+      <c r="AD25">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>43360</v>
+      </c>
+      <c r="AH25">
+        <f t="shared" si="3"/>
+        <v>9</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>43378</v>
+      </c>
+      <c r="AL25">
+        <f t="shared" si="9"/>
+        <v>7</v>
+      </c>
+      <c r="AM25">
+        <v>17</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>43378</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AQ25">
+        <v>6</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>43378</v>
+      </c>
+      <c r="AT25">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AU25">
+        <v>12</v>
+      </c>
+      <c r="AW25" s="1">
+        <v>43378</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="12"/>
+        <v>7</v>
+      </c>
+      <c r="AY25">
+        <v>3</v>
       </c>
     </row>
-    <row r="23" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E23" s="1">
+    <row r="26" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E26" s="1">
         <v>43315</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="I23" s="1">
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1">
         <v>43315</v>
       </c>
-      <c r="K23">
+      <c r="J26">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K26">
         <v>4</v>
       </c>
-      <c r="M23" s="1">
+      <c r="M26" s="1">
         <v>43315</v>
       </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="N26">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
         <v>43315</v>
       </c>
-      <c r="S23">
-        <v>0</v>
+      <c r="R26">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1">
+        <v>43361</v>
+      </c>
+      <c r="V26">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W26">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>43361</v>
+      </c>
+      <c r="Z26">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>43361</v>
+      </c>
+      <c r="AD26">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>43361</v>
+      </c>
+      <c r="AH26">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>43381</v>
+      </c>
+      <c r="AL26">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AM26">
+        <v>25</v>
+      </c>
+      <c r="AO26" s="1">
+        <v>43381</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AQ26">
+        <v>7</v>
+      </c>
+      <c r="AS26" s="1">
+        <v>43381</v>
+      </c>
+      <c r="AT26">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AU26">
+        <v>13</v>
+      </c>
+      <c r="AW26" s="1">
+        <v>43381</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="12"/>
+        <v>8</v>
+      </c>
+      <c r="AY26">
+        <v>4</v>
       </c>
     </row>
-    <row r="24" spans="5:19" x14ac:dyDescent="0.2">
-      <c r="E24" s="1">
+    <row r="27" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="E27" s="1">
         <v>43319</v>
       </c>
-      <c r="G24">
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="G27">
         <v>1</v>
       </c>
-      <c r="I24" s="1">
+      <c r="I27" s="1">
         <v>43319</v>
       </c>
-      <c r="K24">
-        <v>5</v>
-      </c>
-      <c r="M24" s="1">
+      <c r="J27">
+        <f>ROUNDDOWN((I27-43271)/5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1">
         <v>43319</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="N27">
+        <f>ROUNDDOWN((M27-43271)/5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1">
         <v>43319</v>
       </c>
-      <c r="S24">
+      <c r="R27">
+        <f>ROUNDDOWN((Q27-43271)/5,0)</f>
+        <v>9</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1">
+        <v>43362</v>
+      </c>
+      <c r="V27">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>43362</v>
+      </c>
+      <c r="Z27">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>43362</v>
+      </c>
+      <c r="AD27">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>43362</v>
+      </c>
+      <c r="AH27">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>43382</v>
+      </c>
+      <c r="AL27">
+        <f t="shared" si="9"/>
+        <v>8</v>
+      </c>
+      <c r="AM27">
+        <v>13</v>
+      </c>
+      <c r="AO27" s="1">
+        <v>43382</v>
+      </c>
+      <c r="AP27">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="AQ27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="U28" s="1">
+        <v>43363</v>
+      </c>
+      <c r="V28">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W28">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>43363</v>
+      </c>
+      <c r="Z28">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>43363</v>
+      </c>
+      <c r="AD28">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>43363</v>
+      </c>
+      <c r="AH28">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="5:51" x14ac:dyDescent="0.2">
+      <c r="U29" s="1">
+        <v>43364</v>
+      </c>
+      <c r="V29">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>43364</v>
+      </c>
+      <c r="Z29">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>43364</v>
+      </c>
+      <c r="AD29">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>43364</v>
+      </c>
+      <c r="AH29">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="AI29">
         <v>0</v>
       </c>
     </row>

--- a/Rat Review.xlsx
+++ b/Rat Review.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathuser/Documents/Perl Lab Rat Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED271BC1-DDB1-9B40-BF40-D1F007F6DCE6}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{96305A72-3545-AA42-B15D-2EDC47ED5045}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2120" yWindow="460" windowWidth="23400" windowHeight="15000" xr2:uid="{492C9695-63A7-E247-8A26-3C145580BC5E}"/>
+    <workbookView xWindow="12520" yWindow="460" windowWidth="13000" windowHeight="15000" xr2:uid="{492C9695-63A7-E247-8A26-3C145580BC5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -474,8 +474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC0818A-4301-F542-9C62-BCE947E9F3B7}">
   <dimension ref="A1:AY29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
-      <selection activeCell="AS18" sqref="AS18"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="AX14" sqref="AX14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -773,6 +773,46 @@
       <c r="AI4">
         <v>1</v>
       </c>
+      <c r="AK4" s="1">
+        <v>43332</v>
+      </c>
+      <c r="AL4" s="8">
+        <f t="shared" ref="AL4:AL27" si="4">ROUNDDOWN((AK4-43332)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>34</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>43332</v>
+      </c>
+      <c r="AP4" s="8">
+        <f t="shared" ref="AP4:AP7" si="5">ROUNDDOWN((AO4-43332)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>29</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>43332</v>
+      </c>
+      <c r="AT4" s="8">
+        <f t="shared" ref="AT4:AT26" si="6">ROUNDDOWN((AS4-43332)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>38</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>43332</v>
+      </c>
+      <c r="AX4" s="8">
+        <f t="shared" ref="AX4:AX26" si="7">ROUNDDOWN((AW4-43332)/5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>46</v>
+      </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
@@ -836,13 +876,53 @@
       <c r="AI5">
         <v>0</v>
       </c>
+      <c r="AK5" s="1">
+        <v>43333</v>
+      </c>
+      <c r="AL5" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>30</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>43333</v>
+      </c>
+      <c r="AP5" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>34</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>43333</v>
+      </c>
+      <c r="AT5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>30</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>43333</v>
+      </c>
+      <c r="AX5">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY5">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>43271</v>
       </c>
       <c r="B6" s="8">
-        <f t="shared" ref="B6:B9" si="4">ROUNDDOWN((A6-43270)/5,0)</f>
+        <f t="shared" ref="B6:B9" si="8">ROUNDDOWN((A6-43270)/5,0)</f>
         <v>0</v>
       </c>
       <c r="C6">
@@ -852,7 +932,7 @@
         <v>43271</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F27" si="5">ROUNDDOWN((E6-43270)/5,0)</f>
+        <f t="shared" ref="F6:F27" si="9">ROUNDDOWN((E6-43270)/5,0)</f>
         <v>0</v>
       </c>
       <c r="G6">
@@ -927,6 +1007,46 @@
       </c>
       <c r="AI6">
         <v>0</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>43334</v>
+      </c>
+      <c r="AL6" s="8">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>37</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>43334</v>
+      </c>
+      <c r="AP6" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>31</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>43334</v>
+      </c>
+      <c r="AT6">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>30</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>43334</v>
+      </c>
+      <c r="AX6">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AY6">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.2">
@@ -934,7 +1054,7 @@
         <v>43272</v>
       </c>
       <c r="B7" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="C7">
@@ -944,7 +1064,7 @@
         <v>43272</v>
       </c>
       <c r="F7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="G7">
@@ -954,7 +1074,7 @@
         <v>43272</v>
       </c>
       <c r="J7">
-        <f t="shared" ref="J7:J26" si="6">ROUNDDOWN((I7-43271)/5,0)</f>
+        <f t="shared" ref="J7:J26" si="10">ROUNDDOWN((I7-43271)/5,0)</f>
         <v>0</v>
       </c>
       <c r="K7">
@@ -964,7 +1084,7 @@
         <v>43272</v>
       </c>
       <c r="N7">
-        <f t="shared" ref="N7:N26" si="7">ROUNDDOWN((M7-43271)/5,0)</f>
+        <f t="shared" ref="N7:N26" si="11">ROUNDDOWN((M7-43271)/5,0)</f>
         <v>0</v>
       </c>
       <c r="O7">
@@ -974,7 +1094,7 @@
         <v>43272</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R26" si="8">ROUNDDOWN((Q7-43271)/5,0)</f>
+        <f t="shared" ref="R7:R26" si="12">ROUNDDOWN((Q7-43271)/5,0)</f>
         <v>0</v>
       </c>
       <c r="S7" s="7">
@@ -1024,8 +1144,8 @@
         <v>43339</v>
       </c>
       <c r="AL7" s="8">
-        <f>ROUNDDOWN((AK7-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AM7">
         <v>33</v>
@@ -1034,8 +1154,8 @@
         <v>43339</v>
       </c>
       <c r="AP7" s="8">
-        <f>ROUNDDOWN((AO7-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>35</v>
@@ -1044,8 +1164,8 @@
         <v>43339</v>
       </c>
       <c r="AT7" s="8">
-        <f>ROUNDDOWN((AS7-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="AU7">
         <v>30</v>
@@ -1054,8 +1174,8 @@
         <v>43339</v>
       </c>
       <c r="AX7" s="8">
-        <f>ROUNDDOWN((AW7-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="AY7">
         <v>40</v>
@@ -1066,35 +1186,35 @@
         <v>43277</v>
       </c>
       <c r="B8" s="9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="E8" s="4">
         <v>43277</v>
       </c>
       <c r="F8" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="I8" s="4">
         <v>43277</v>
       </c>
       <c r="J8" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="M8" s="4">
         <v>43277</v>
       </c>
       <c r="N8" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q8" s="4">
         <v>43277</v>
       </c>
       <c r="R8" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U8" s="4">
@@ -1132,29 +1252,29 @@
         <v>43340</v>
       </c>
       <c r="AL8" s="5">
-        <f t="shared" ref="AL8:AL27" si="9">ROUNDDOWN((AK8-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="AO8" s="4">
         <v>43340</v>
       </c>
       <c r="AP8" s="5">
-        <f t="shared" ref="AP8:AP27" si="10">ROUNDDOWN((AO8-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" ref="AP8:AP27" si="13">ROUNDDOWN((AO8-43332)/5,0)</f>
+        <v>1</v>
       </c>
       <c r="AS8" s="4">
         <v>43340</v>
       </c>
       <c r="AT8" s="5">
-        <f t="shared" ref="AT8:AT27" si="11">ROUNDDOWN((AS8-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="AW8" s="4">
         <v>43340</v>
       </c>
       <c r="AX8" s="5">
-        <f t="shared" ref="AX8:AX27" si="12">ROUNDDOWN((AW8-43339)/5,0)</f>
-        <v>0</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.2">
@@ -1162,7 +1282,7 @@
         <v>43290</v>
       </c>
       <c r="B9" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4</v>
       </c>
       <c r="C9">
@@ -1172,7 +1292,7 @@
         <v>43290</v>
       </c>
       <c r="F9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G9">
@@ -1182,7 +1302,7 @@
         <v>43290</v>
       </c>
       <c r="J9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>3</v>
       </c>
       <c r="K9">
@@ -1192,7 +1312,7 @@
         <v>43290</v>
       </c>
       <c r="N9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
       <c r="O9">
@@ -1202,7 +1322,7 @@
         <v>43290</v>
       </c>
       <c r="R9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="S9">
@@ -1222,8 +1342,8 @@
         <v>43353</v>
       </c>
       <c r="AL9">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
       <c r="AM9">
         <v>12</v>
@@ -1231,9 +1351,9 @@
       <c r="AO9" s="1">
         <v>43353</v>
       </c>
-      <c r="AP9">
-        <f t="shared" si="10"/>
-        <v>2</v>
+      <c r="AP9" s="8">
+        <f t="shared" si="13"/>
+        <v>4</v>
       </c>
       <c r="AQ9">
         <v>4</v>
@@ -1242,8 +1362,8 @@
         <v>43353</v>
       </c>
       <c r="AT9">
-        <f t="shared" si="11"/>
-        <v>2</v>
+        <f t="shared" si="6"/>
+        <v>4</v>
       </c>
       <c r="AU9">
         <v>7</v>
@@ -1252,8 +1372,8 @@
         <v>43353</v>
       </c>
       <c r="AX9">
-        <f t="shared" si="12"/>
-        <v>2</v>
+        <f t="shared" si="7"/>
+        <v>4</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -1264,7 +1384,7 @@
         <v>43292</v>
       </c>
       <c r="F10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="G10">
@@ -1274,7 +1394,7 @@
         <v>43291</v>
       </c>
       <c r="J10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K10">
@@ -1284,7 +1404,7 @@
         <v>43292</v>
       </c>
       <c r="N10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="O10">
@@ -1294,7 +1414,7 @@
         <v>43293</v>
       </c>
       <c r="R10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="S10">
@@ -1344,8 +1464,8 @@
         <v>43361</v>
       </c>
       <c r="AL10">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
       <c r="AM10">
         <v>17</v>
@@ -1353,9 +1473,9 @@
       <c r="AO10" s="1">
         <v>43361</v>
       </c>
-      <c r="AP10">
-        <f t="shared" si="10"/>
-        <v>4</v>
+      <c r="AP10" s="8">
+        <f t="shared" si="13"/>
+        <v>5</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -1364,8 +1484,8 @@
         <v>43361</v>
       </c>
       <c r="AT10">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>5</v>
       </c>
       <c r="AU10">
         <v>3</v>
@@ -1374,8 +1494,8 @@
         <v>43361</v>
       </c>
       <c r="AX10">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>5</v>
       </c>
       <c r="AY10">
         <v>3</v>
@@ -1386,7 +1506,7 @@
         <v>43293</v>
       </c>
       <c r="J11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="K11">
@@ -1436,8 +1556,8 @@
         <v>43362</v>
       </c>
       <c r="AL11">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="AM11">
         <v>20</v>
@@ -1445,9 +1565,9 @@
       <c r="AO11" s="1">
         <v>43362</v>
       </c>
-      <c r="AP11">
-        <f t="shared" si="10"/>
-        <v>4</v>
+      <c r="AP11" s="8">
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -1456,8 +1576,8 @@
         <v>43362</v>
       </c>
       <c r="AT11">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AU11">
         <v>2</v>
@@ -1466,8 +1586,8 @@
         <v>43362</v>
       </c>
       <c r="AX11">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AY11">
         <v>5</v>
@@ -1478,7 +1598,7 @@
         <v>43297</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G12">
@@ -1488,7 +1608,7 @@
         <v>43297</v>
       </c>
       <c r="J12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K12">
@@ -1498,7 +1618,7 @@
         <v>43297</v>
       </c>
       <c r="N12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O12">
@@ -1508,7 +1628,7 @@
         <v>43297</v>
       </c>
       <c r="R12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="S12">
@@ -1558,8 +1678,8 @@
         <v>43363</v>
       </c>
       <c r="AL12">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="AM12">
         <v>21</v>
@@ -1567,9 +1687,9 @@
       <c r="AO12" s="1">
         <v>43363</v>
       </c>
-      <c r="AP12">
-        <f t="shared" si="10"/>
-        <v>4</v>
+      <c r="AP12" s="8">
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -1578,8 +1698,8 @@
         <v>43363</v>
       </c>
       <c r="AT12">
-        <f t="shared" si="11"/>
-        <v>4</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -1588,8 +1708,8 @@
         <v>43363</v>
       </c>
       <c r="AX12">
-        <f t="shared" si="12"/>
-        <v>4</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AY12">
         <v>10</v>
@@ -1600,7 +1720,7 @@
         <v>43298</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G13">
@@ -1610,7 +1730,7 @@
         <v>43298</v>
       </c>
       <c r="J13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K13">
@@ -1620,7 +1740,7 @@
         <v>43298</v>
       </c>
       <c r="N13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O13">
@@ -1630,7 +1750,7 @@
         <v>43298</v>
       </c>
       <c r="R13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="S13">
@@ -1680,8 +1800,8 @@
         <v>43364</v>
       </c>
       <c r="AL13">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
       <c r="AM13">
         <v>15</v>
@@ -1689,9 +1809,9 @@
       <c r="AO13" s="1">
         <v>43364</v>
       </c>
-      <c r="AP13">
-        <f t="shared" si="10"/>
-        <v>5</v>
+      <c r="AP13" s="8">
+        <f t="shared" si="13"/>
+        <v>6</v>
       </c>
       <c r="AQ13">
         <v>2</v>
@@ -1700,8 +1820,8 @@
         <v>43364</v>
       </c>
       <c r="AT13">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>6</v>
       </c>
       <c r="AU13">
         <v>8</v>
@@ -1710,8 +1830,8 @@
         <v>43364</v>
       </c>
       <c r="AX13">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>6</v>
       </c>
       <c r="AY13">
         <v>6</v>
@@ -1722,7 +1842,7 @@
         <v>43299</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
       <c r="G14">
@@ -1732,7 +1852,7 @@
         <v>43299</v>
       </c>
       <c r="J14">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K14">
@@ -1742,7 +1862,7 @@
         <v>43299</v>
       </c>
       <c r="N14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O14">
@@ -1752,7 +1872,7 @@
         <v>43299</v>
       </c>
       <c r="R14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="S14">
@@ -1798,6 +1918,7 @@
       <c r="AI14">
         <v>0</v>
       </c>
+      <c r="AP14" s="8"/>
       <c r="AW14" s="1"/>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.2">
@@ -1805,7 +1926,7 @@
         <v>43300</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G15">
@@ -1815,7 +1936,7 @@
         <v>43300</v>
       </c>
       <c r="J15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5</v>
       </c>
       <c r="K15">
@@ -1825,7 +1946,7 @@
         <v>43300</v>
       </c>
       <c r="N15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="O15">
@@ -1835,7 +1956,7 @@
         <v>43300</v>
       </c>
       <c r="R15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="S15">
@@ -1881,6 +2002,7 @@
       <c r="AI15">
         <v>0</v>
       </c>
+      <c r="AP15" s="8"/>
       <c r="AW15" s="1"/>
     </row>
     <row r="16" spans="1:51" s="3" customFormat="1" x14ac:dyDescent="0.2">
@@ -1892,7 +2014,7 @@
         <v>43301</v>
       </c>
       <c r="F16" s="11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G16" s="11">
@@ -1903,7 +2025,7 @@
         <v>43301</v>
       </c>
       <c r="J16" s="3">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K16" s="3">
@@ -1914,7 +2036,7 @@
         <v>43301</v>
       </c>
       <c r="N16" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O16" s="3">
@@ -1925,7 +2047,7 @@
         <v>43301</v>
       </c>
       <c r="R16" s="11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="S16" s="11">
@@ -1980,8 +2102,8 @@
         <v>43367</v>
       </c>
       <c r="AL16" s="11">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="AM16" s="11">
         <v>14</v>
@@ -1991,8 +2113,8 @@
         <v>43367</v>
       </c>
       <c r="AP16" s="3">
-        <f t="shared" si="10"/>
-        <v>5</v>
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="AQ16" s="3">
         <v>3</v>
@@ -2001,8 +2123,8 @@
         <v>43367</v>
       </c>
       <c r="AT16" s="3">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="AU16" s="3">
         <v>10</v>
@@ -2011,8 +2133,8 @@
         <v>43367</v>
       </c>
       <c r="AX16" s="3">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="AY16" s="3">
         <v>2</v>
@@ -2023,7 +2145,7 @@
         <v>43304</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="G17">
@@ -2033,7 +2155,7 @@
         <v>43304</v>
       </c>
       <c r="J17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K17">
@@ -2043,7 +2165,7 @@
         <v>43304</v>
       </c>
       <c r="N17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O17">
@@ -2053,7 +2175,7 @@
         <v>43304</v>
       </c>
       <c r="R17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="S17">
@@ -2103,8 +2225,8 @@
         <v>43368</v>
       </c>
       <c r="AL17">
-        <f t="shared" si="9"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="AM17">
         <v>17</v>
@@ -2112,9 +2234,9 @@
       <c r="AO17" s="1">
         <v>43368</v>
       </c>
-      <c r="AP17">
-        <f t="shared" si="10"/>
-        <v>5</v>
+      <c r="AP17" s="8">
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -2123,8 +2245,8 @@
         <v>43368</v>
       </c>
       <c r="AT17">
-        <f t="shared" si="11"/>
-        <v>5</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="AU17">
         <v>13</v>
@@ -2133,8 +2255,8 @@
         <v>43368</v>
       </c>
       <c r="AX17">
-        <f t="shared" si="12"/>
-        <v>5</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="AY17">
         <v>0</v>
@@ -2145,7 +2267,7 @@
         <v>43305</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G18">
@@ -2155,7 +2277,7 @@
         <v>43305</v>
       </c>
       <c r="J18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
       <c r="K18">
@@ -2165,7 +2287,7 @@
         <v>43305</v>
       </c>
       <c r="N18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="O18">
@@ -2175,7 +2297,7 @@
         <v>43305</v>
       </c>
       <c r="R18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>6</v>
       </c>
       <c r="S18">
@@ -2225,8 +2347,8 @@
         <v>43369</v>
       </c>
       <c r="AL18">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="AM18">
         <v>19</v>
@@ -2234,9 +2356,9 @@
       <c r="AO18" s="1">
         <v>43369</v>
       </c>
-      <c r="AP18">
-        <f t="shared" si="10"/>
-        <v>6</v>
+      <c r="AP18" s="8">
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="AQ18">
         <v>5</v>
@@ -2245,8 +2367,8 @@
         <v>43369</v>
       </c>
       <c r="AT18">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="AU18">
         <v>0</v>
@@ -2255,8 +2377,8 @@
         <v>43369</v>
       </c>
       <c r="AX18">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="AY18">
         <v>7</v>
@@ -2267,7 +2389,7 @@
         <v>43306</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G19">
@@ -2277,7 +2399,7 @@
         <v>43306</v>
       </c>
       <c r="J19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K19">
@@ -2287,7 +2409,7 @@
         <v>43306</v>
       </c>
       <c r="N19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O19">
@@ -2297,7 +2419,7 @@
         <v>43306</v>
       </c>
       <c r="R19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S19">
@@ -2347,8 +2469,8 @@
         <v>43370</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="AM19">
         <v>24</v>
@@ -2356,9 +2478,9 @@
       <c r="AO19" s="1">
         <v>43370</v>
       </c>
-      <c r="AP19">
-        <f t="shared" si="10"/>
-        <v>6</v>
+      <c r="AP19" s="8">
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="AQ19">
         <v>10</v>
@@ -2367,8 +2489,8 @@
         <v>43370</v>
       </c>
       <c r="AT19">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="AU19">
         <v>10</v>
@@ -2377,8 +2499,8 @@
         <v>43370</v>
       </c>
       <c r="AX19">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="AY19">
         <v>9</v>
@@ -2389,7 +2511,7 @@
         <v>43307</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G20">
@@ -2399,7 +2521,7 @@
         <v>43307</v>
       </c>
       <c r="J20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K20">
@@ -2409,7 +2531,7 @@
         <v>43307</v>
       </c>
       <c r="N20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O20">
@@ -2419,7 +2541,7 @@
         <v>43307</v>
       </c>
       <c r="R20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S20">
@@ -2469,8 +2591,8 @@
         <v>43371</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
       <c r="AM20">
         <v>19</v>
@@ -2478,9 +2600,9 @@
       <c r="AO20" s="1">
         <v>43371</v>
       </c>
-      <c r="AP20">
-        <f t="shared" si="10"/>
-        <v>6</v>
+      <c r="AP20" s="8">
+        <f t="shared" si="13"/>
+        <v>7</v>
       </c>
       <c r="AQ20">
         <v>6</v>
@@ -2489,8 +2611,8 @@
         <v>43371</v>
       </c>
       <c r="AT20">
-        <f t="shared" si="11"/>
-        <v>6</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="AU20">
         <v>7</v>
@@ -2499,8 +2621,8 @@
         <v>43371</v>
       </c>
       <c r="AX20">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="7"/>
+        <v>7</v>
       </c>
       <c r="AY20">
         <v>5</v>
@@ -2511,7 +2633,7 @@
         <v>43308</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="G21">
@@ -2521,7 +2643,7 @@
         <v>43308</v>
       </c>
       <c r="J21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>7</v>
       </c>
       <c r="K21">
@@ -2531,7 +2653,7 @@
         <v>43308</v>
       </c>
       <c r="N21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="O21">
@@ -2541,7 +2663,7 @@
         <v>43308</v>
       </c>
       <c r="R21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>7</v>
       </c>
       <c r="S21">
@@ -2591,8 +2713,8 @@
         <v>43374</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="AM21">
         <v>15</v>
@@ -2600,9 +2722,9 @@
       <c r="AO21" s="1">
         <v>43374</v>
       </c>
-      <c r="AP21">
-        <f t="shared" si="10"/>
-        <v>7</v>
+      <c r="AP21" s="8">
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="AQ21">
         <v>4</v>
@@ -2611,8 +2733,8 @@
         <v>43374</v>
       </c>
       <c r="AT21">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="AU21">
         <v>8</v>
@@ -2621,8 +2743,8 @@
         <v>43374</v>
       </c>
       <c r="AX21">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="AY21">
         <v>7</v>
@@ -2633,7 +2755,7 @@
         <v>43311</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G22">
@@ -2643,7 +2765,7 @@
         <v>43311</v>
       </c>
       <c r="J22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K22">
@@ -2653,7 +2775,7 @@
         <v>43311</v>
       </c>
       <c r="N22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O22">
@@ -2663,7 +2785,7 @@
         <v>43311</v>
       </c>
       <c r="R22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="S22">
@@ -2713,8 +2835,8 @@
         <v>43375</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="AM22">
         <v>19</v>
@@ -2722,9 +2844,9 @@
       <c r="AO22" s="1">
         <v>43375</v>
       </c>
-      <c r="AP22">
-        <f t="shared" si="10"/>
-        <v>7</v>
+      <c r="AP22" s="8">
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="AQ22">
         <v>6</v>
@@ -2733,8 +2855,8 @@
         <v>43375</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="AU22">
         <v>13</v>
@@ -2743,8 +2865,8 @@
         <v>43375</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="AY22">
         <v>6</v>
@@ -2755,7 +2877,7 @@
         <v>43312</v>
       </c>
       <c r="F23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G23">
@@ -2765,7 +2887,7 @@
         <v>43312</v>
       </c>
       <c r="J23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K23">
@@ -2775,7 +2897,7 @@
         <v>43312</v>
       </c>
       <c r="R23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="S23">
@@ -2825,8 +2947,8 @@
         <v>43376</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
       <c r="AM23">
         <v>11</v>
@@ -2834,9 +2956,9 @@
       <c r="AO23" s="1">
         <v>43376</v>
       </c>
-      <c r="AP23">
-        <f t="shared" si="10"/>
-        <v>7</v>
+      <c r="AP23" s="8">
+        <f t="shared" si="13"/>
+        <v>8</v>
       </c>
       <c r="AQ23">
         <v>5</v>
@@ -2845,8 +2967,8 @@
         <v>43376</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>8</v>
       </c>
       <c r="AU23">
         <v>12</v>
@@ -2855,8 +2977,8 @@
         <v>43376</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>8</v>
       </c>
       <c r="AY23">
         <v>5</v>
@@ -2867,7 +2989,7 @@
         <v>43313</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G24">
@@ -2877,7 +2999,7 @@
         <v>43313</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K24">
@@ -2887,7 +3009,7 @@
         <v>43313</v>
       </c>
       <c r="N24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O24">
@@ -2897,7 +3019,7 @@
         <v>43313</v>
       </c>
       <c r="R24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="S24">
@@ -2947,8 +3069,8 @@
         <v>43377</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="AM24">
         <v>7</v>
@@ -2956,9 +3078,9 @@
       <c r="AO24" s="1">
         <v>43377</v>
       </c>
-      <c r="AP24">
-        <f t="shared" si="10"/>
-        <v>7</v>
+      <c r="AP24" s="8">
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -2967,8 +3089,8 @@
         <v>43377</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="AU24">
         <v>13</v>
@@ -2977,8 +3099,8 @@
         <v>43377</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="AY24">
         <v>5</v>
@@ -2989,7 +3111,7 @@
         <v>43314</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="G25">
@@ -2999,7 +3121,7 @@
         <v>43314</v>
       </c>
       <c r="J25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K25">
@@ -3009,7 +3131,7 @@
         <v>43314</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O25">
@@ -3019,7 +3141,7 @@
         <v>43314</v>
       </c>
       <c r="R25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="S25">
@@ -3069,8 +3191,8 @@
         <v>43378</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="9"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="AM25">
         <v>17</v>
@@ -3078,9 +3200,9 @@
       <c r="AO25" s="1">
         <v>43378</v>
       </c>
-      <c r="AP25">
-        <f t="shared" si="10"/>
-        <v>7</v>
+      <c r="AP25" s="8">
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="AQ25">
         <v>6</v>
@@ -3089,8 +3211,8 @@
         <v>43378</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="11"/>
-        <v>7</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="AU25">
         <v>12</v>
@@ -3099,8 +3221,8 @@
         <v>43378</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="12"/>
-        <v>7</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="AY25">
         <v>3</v>
@@ -3111,7 +3233,7 @@
         <v>43315</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="G26">
@@ -3121,7 +3243,7 @@
         <v>43315</v>
       </c>
       <c r="J26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>8</v>
       </c>
       <c r="K26">
@@ -3131,7 +3253,7 @@
         <v>43315</v>
       </c>
       <c r="N26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>8</v>
       </c>
       <c r="O26">
@@ -3141,7 +3263,7 @@
         <v>43315</v>
       </c>
       <c r="R26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>8</v>
       </c>
       <c r="S26">
@@ -3191,8 +3313,8 @@
         <v>43381</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
       <c r="AM26">
         <v>25</v>
@@ -3200,9 +3322,9 @@
       <c r="AO26" s="1">
         <v>43381</v>
       </c>
-      <c r="AP26">
-        <f t="shared" si="10"/>
-        <v>8</v>
+      <c r="AP26" s="8">
+        <f t="shared" si="13"/>
+        <v>9</v>
       </c>
       <c r="AQ26">
         <v>7</v>
@@ -3211,8 +3333,8 @@
         <v>43381</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="11"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>9</v>
       </c>
       <c r="AU26">
         <v>13</v>
@@ -3221,8 +3343,8 @@
         <v>43381</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="12"/>
-        <v>8</v>
+        <f t="shared" si="7"/>
+        <v>9</v>
       </c>
       <c r="AY26">
         <v>4</v>
@@ -3233,7 +3355,7 @@
         <v>43319</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="G27">
@@ -3313,8 +3435,8 @@
         <v>43382</v>
       </c>
       <c r="AL27">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
       <c r="AM27">
         <v>13</v>
@@ -3322,9 +3444,9 @@
       <c r="AO27" s="1">
         <v>43382</v>
       </c>
-      <c r="AP27">
-        <f t="shared" si="10"/>
-        <v>8</v>
+      <c r="AP27" s="8">
+        <f t="shared" si="13"/>
+        <v>10</v>
       </c>
       <c r="AQ27">
         <v>6</v>
